--- a/xlsx/country_comparison/few_main_positive.xlsx
+++ b/xlsx/country_comparison/few_main_positive.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -30,12 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for a Global Climate Scheme at $90/tCO2</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
@@ -409,22 +406,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.757320866764204</v>
+        <v>0.580974048697037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.790838302049663</v>
+        <v>0.714793319488843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.714184300632022</v>
+        <v>0.694319177328758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.821162322917585</v>
+        <v>0.723244532725875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.73482067298493</v>
+        <v>0.776824002261202</v>
       </c>
       <c r="G2" t="n">
-        <v>0.527972734148463</v>
+        <v>0.708989998773392</v>
       </c>
     </row>
     <row r="3">
@@ -432,22 +429,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.714793319488843</v>
+        <v>0.502686637940573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.672529001539924</v>
+        <v>0.535405079823794</v>
       </c>
       <c r="D3" t="n">
-        <v>0.720822015305089</v>
+        <v>0.53495530999455</v>
       </c>
       <c r="E3" t="n">
-        <v>0.789988944256303</v>
+        <v>0.504405401186565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.695935434276171</v>
+        <v>0.57374820373221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.580974048697037</v>
+        <v>0.54094700051697</v>
       </c>
     </row>
     <row r="4">
@@ -455,22 +452,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.535405079823794</v>
+        <v>0.53081419263325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.538551552740021</v>
+        <v>0.646086050975591</v>
       </c>
       <c r="D4" t="n">
-        <v>0.502505686573289</v>
+        <v>0.617631776703308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.591198927333023</v>
+        <v>0.661981009518735</v>
       </c>
       <c r="F4" t="n">
-        <v>0.531688136181946</v>
+        <v>0.679241918379181</v>
       </c>
       <c r="G4" t="n">
-        <v>0.502686637940573</v>
+        <v>0.624160044931323</v>
       </c>
     </row>
     <row r="5">
@@ -478,45 +475,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.646086050975591</v>
+        <v>0.598187005678365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.60386791045145</v>
+        <v>0.636739028674537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.660101256249029</v>
+        <v>0.627588384954585</v>
       </c>
       <c r="E5" t="n">
-        <v>0.700960412577382</v>
+        <v>0.676807601959896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.629099287245056</v>
+        <v>0.691059073949057</v>
       </c>
       <c r="G5" t="n">
-        <v>0.53081419263325</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.636739028674537</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.628556377106361</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.686653809365706</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7021625346065</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.532030267219068</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.598187005678365</v>
+        <v>0.560844998477962</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/few_main_positive.xlsx
+++ b/xlsx/country_comparison/few_main_positive.xlsx
@@ -12,27 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
+    <t xml:space="preserve">Support for a Global Climate Scheme at $90/tCO2</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
@@ -406,22 +409,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.580974048697037</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.714793319488843</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.694319177328758</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.723244532725875</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="F2" t="n">
-        <v>0.776824002261202</v>
+        <v>0.74106127773703</v>
       </c>
       <c r="G2" t="n">
-        <v>0.708989998773392</v>
+        <v>0.542040004729187</v>
       </c>
     </row>
     <row r="3">
@@ -429,22 +432,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.502686637940573</v>
+        <v>0.714793319488843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.535405079823794</v>
+        <v>0.694319177328758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53495530999455</v>
+        <v>0.723244532725875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.504405401186565</v>
+        <v>0.776824002261202</v>
       </c>
       <c r="F3" t="n">
-        <v>0.57374820373221</v>
+        <v>0.708989998773392</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54094700051697</v>
+        <v>0.580974048697037</v>
       </c>
     </row>
     <row r="4">
@@ -452,22 +455,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.53081419263325</v>
+        <v>0.535405079823794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.646086050975591</v>
+        <v>0.53495530999455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.617631776703308</v>
+        <v>0.504405401186565</v>
       </c>
       <c r="E4" t="n">
-        <v>0.661981009518735</v>
+        <v>0.57374820373221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.679241918379181</v>
+        <v>0.54094700051697</v>
       </c>
       <c r="G4" t="n">
-        <v>0.624160044931323</v>
+        <v>0.502686637940573</v>
       </c>
     </row>
     <row r="5">
@@ -475,22 +478,45 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
+        <v>0.646086050975591</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.617631776703308</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.661981009518735</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.679241918379181</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.624160044931323</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.53081419263325</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.636739028674537</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.627588384954585</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.676807601959896</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.691059073949057</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.560844998477962</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.598187005678365</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.636739028674537</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.627588384954585</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.676807601959896</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.691059073949057</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.560844998477962</v>
       </c>
     </row>
   </sheetData>
